--- a/PK/tbemr_basicRegister_codebook_v1.2_pk.xlsx
+++ b/PK/tbemr_basicRegister_codebook_v1.2_pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msfintl-my.sharepoint.com/personal/kristina_reinhardt_newyork_msf_org/Documents/github/mart-tbemr-query-library/PK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFEEED4-8CE3-4DCD-8B93-D647C00B18BF}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3F628ECC-ADCD-4099-BEC7-9B7DA5B7586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ECEFECC-C97A-4B5B-A6DD-89BC4525BEF2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A005DB92-A8DC-40CC-A3FD-38C99E047FDE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="basic_register_description" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">basic_register_description!$A$1:$J$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">basic_register_description!$A$1:$J$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="290">
   <si>
     <t>Column</t>
   </si>
@@ -900,6 +900,21 @@
   </si>
   <si>
     <t>Revised query to accommodate metadata changes made for the Pakistan implementation, including removing last visit date (not collected) and changes to last facility (concept name changes, other not collected).</t>
+  </si>
+  <si>
+    <t>13_Treatment_Start_Year</t>
+  </si>
+  <si>
+    <t>13_Treatment_Start_Quarter</t>
+  </si>
+  <si>
+    <t>This is the MDRTB start year from the treatment initiation form</t>
+  </si>
+  <si>
+    <t>This is the MDRTB start quarter + year from the treatment initiation form</t>
+  </si>
+  <si>
+    <t>Added treatment start year and quarter for Metabase dashboard filtering</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1595,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,9 +1762,15 @@
       </c>
     </row>
     <row r="16" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="20">
+        <v>44739</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
@@ -1782,12 +1803,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755CC844-63E2-4B85-BD9F-12E3C1EFFCA3}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2217,131 +2238,131 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>64</v>
@@ -2353,7 +2374,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>58</v>
@@ -2362,15 +2383,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>64</v>
@@ -2382,7 +2403,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>58</v>
@@ -2391,111 +2412,105 @@
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>70</v>
@@ -2507,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
@@ -2524,10 +2539,10 @@
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>70</v>
@@ -2556,10 +2571,10 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>70</v>
@@ -2588,10 +2603,10 @@
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>70</v>
@@ -2620,10 +2635,10 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>70</v>
@@ -2652,10 +2667,10 @@
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>70</v>
@@ -2684,10 +2699,10 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>70</v>
@@ -2716,10 +2731,10 @@
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>70</v>
@@ -2748,10 +2763,10 @@
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>70</v>
@@ -2780,10 +2795,10 @@
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>70</v>
@@ -2812,10 +2827,10 @@
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>70</v>
@@ -2844,10 +2859,10 @@
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>70</v>
@@ -2876,10 +2891,10 @@
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
@@ -2908,10 +2923,10 @@
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
@@ -2940,10 +2955,10 @@
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>70</v>
@@ -2972,10 +2987,10 @@
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>70</v>
@@ -3004,10 +3019,10 @@
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>70</v>
@@ -3036,10 +3051,10 @@
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>70</v>
@@ -3068,10 +3083,10 @@
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>70</v>
@@ -3100,10 +3115,10 @@
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>70</v>
@@ -3132,10 +3147,10 @@
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>70</v>
@@ -3164,10 +3179,10 @@
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>70</v>
@@ -3196,10 +3211,10 @@
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>70</v>
@@ -3226,378 +3241,384 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="I49" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>103</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="I58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>190</v>
@@ -3615,18 +3636,18 @@
         <v>15</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>190</v>
@@ -3641,21 +3662,21 @@
         <v>204</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>190</v>
@@ -3670,126 +3691,126 @@
         <v>204</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="2" t="s">
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>16</v>
@@ -3797,56 +3818,99 @@
     </row>
     <row r="66" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64" xr:uid="{F3A09C70-F2B3-4544-AF29-19179100C3E5}"/>
+  <autoFilter ref="A1:J66" xr:uid="{F3A09C70-F2B3-4544-AF29-19179100C3E5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010070CE95ABCCDF824688903FE290C52AA9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407cfcb431a1568ce500e5bc0124fa9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="500fc99d-b194-414e-9bc2-944fb4fc9ef3" xmlns:ns4="95809629-8651-4b51-a536-1331494a3072" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58b948c687cb66ba8472d9e221e8c138" ns3:_="" ns4:_="">
     <xsd:import namespace="500fc99d-b194-414e-9bc2-944fb4fc9ef3"/>
@@ -4055,24 +4119,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EE0199-3B27-4E13-8063-710C7C97DB35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4089,4 +4151,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357647DF-603C-4CA9-B082-BB6ADB1E29DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAC8D0C-DBC1-4884-B9C9-C3DF8114B459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>